--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michi/Desktop/pandas_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FAAF2A-C3C1-FC44-A1AC-750991920D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA15E92F-8A78-C14D-AAEA-FD4C85D99031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{9CCCFB0E-5EFD-41D0-AAF2-1FF578FCD39F}"/>
   </bookViews>
@@ -109,25 +109,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ナマエ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結果</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ケッカ </t>
-    </rPh>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ip_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -135,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +151,15 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -201,7 +204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +212,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +538,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -539,17 +548,17 @@
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michi/Desktop/pandas_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA15E92F-8A78-C14D-AAEA-FD4C85D99031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C103FDA-B02F-2440-8DCE-4619012D5C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{9CCCFB0E-5EFD-41D0-AAF2-1FF578FCD39F}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{9CCCFB0E-5EFD-41D0-AAF2-1FF578FCD39F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>google</t>
     <phoneticPr fontId="1"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダミー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>13.112.3.161</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -99,13 +95,6 @@
   </si>
   <si>
     <t>13.113.186.143</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>111.111.111.111</t>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -535,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3E23E2-04BD-4191-BB6B-3A84D4B5941B}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -550,16 +539,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -594,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -606,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -618,21 +607,9 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michi/Desktop/pandas_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C103FDA-B02F-2440-8DCE-4619012D5C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B209EEF4-A7AB-F340-B899-3B4A71192499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{9CCCFB0E-5EFD-41D0-AAF2-1FF578FCD39F}"/>
   </bookViews>
@@ -35,10 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>google</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>YAHOO! JAPAN</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -111,6 +107,10 @@
   </si>
   <si>
     <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -527,7 +527,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -539,75 +539,75 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
     </row>
